--- a/biology/Zoologie/Erebia_callias/Erebia_callias.xlsx
+++ b/biology/Zoologie/Erebia_callias/Erebia_callias.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erebia callias est un lépidoptère appartenant à la famille des Nymphalidae, à la sous-famille des Satyrinae et au genre Erebia.
 </t>
@@ -511,17 +523,13 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Erebia callias nommé par Edwards en 1871.
-Synonymes : Erebia tyndarus callias ; Dyar, 1903[1].
-Nom vernaculaire
-Il se nomme en anglais Colorado Alpine[1].
-Sous-espèces
-Erebia callias sibirica Staudinger, 1881 ;
-Erebia callias altajana Staudinger, 1901 ;
-Erebia callias simulata Warren, 1933 ;
-Erebia callias tsherskiensis Dubatolov, 1992 [1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erebia callias nommé par Edwards en 1871.
+Synonymes : Erebia tyndarus callias ; Dyar, 1903.
+</t>
         </is>
       </c>
     </row>
@@ -546,12 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Erebia vidleri est un papillon  marron grisé avec aux antérieure une tache cuivrée triangulaire portant un ocelle géminé pupillé de blanc à l'apex alors que les postérieures portent une ligne de très discrètes taches orange centrées d'un tout petit ocelle pupillé de blanc.
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se nomme en anglais Colorado Alpine.
 </t>
         </is>
       </c>
@@ -577,16 +591,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole en une génération en juillet et début août[2].
-Plantes hôtes
-Les plantes hôtes des chenilles seraient des Poaceae ou des Cyperaceae[1].
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Erebia callias sibirica Staudinger, 1881 ;
+Erebia callias altajana Staudinger, 1901 ;
+Erebia callias simulata Warren, 1933 ;
+Erebia callias tsherskiensis Dubatolov, 1992 .</t>
         </is>
       </c>
     </row>
@@ -611,15 +630,159 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erebia vidleri est un papillon  marron grisé avec aux antérieure une tache cuivrée triangulaire portant un ocelle géminé pupillé de blanc à l'apex alors que les postérieures portent une ligne de très discrètes taches orange centrées d'un tout petit ocelle pupillé de blanc.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Erebia_callias</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erebia_callias</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en une génération en juillet et début août.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Erebia_callias</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erebia_callias</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes des chenilles seraient des Poaceae ou des Cyperaceae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Erebia_callias</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erebia_callias</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Il est présent en Amérique du Nord, dans les zones montagneuses du sud du Montana, du Colorado, de l'Utah et du Wyoming et en Asie, dans le sud-est du Kazakhstan, en Altaï, Mongolie et dans l'est de la Iakoutie[1],[3].
-Biotope
-Il réside dans les montagnes.
-Protection</t>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent en Amérique du Nord, dans les zones montagneuses du sud du Montana, du Colorado, de l'Utah et du Wyoming et en Asie, dans le sud-est du Kazakhstan, en Altaï, Mongolie et dans l'est de la Iakoutie,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Erebia_callias</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erebia_callias</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans les montagnes.
+</t>
         </is>
       </c>
     </row>
